--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>pp</t>
   </si>
   <si>
-    <t xml:space="preserve">CMS(e) </t>
+    <t>CMS(e)(2010)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397B7FB-2E2E-794E-A593-AF47C6513601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -47,9 +48,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -75,19 +73,39 @@
   </si>
   <si>
     <t>CMS(e)(2010)</t>
+  </si>
+  <si>
+    <t>syst0_c</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,22 +415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
     <col min="1013" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,22 +453,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -461,7 +494,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>0.155</v>
@@ -473,19 +506,31 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
+      <c r="M2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N2">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P2">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -499,7 +544,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>0.16700000000000001</v>
@@ -511,19 +556,31 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
+      <c r="M3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N3">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P3">
+        <v>1.9E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -537,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>0.17499999999999999</v>
@@ -549,19 +606,31 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
+      <c r="M4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N4">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.9E-3</v>
+      </c>
+      <c r="P4">
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -575,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0.19400000000000001</v>
@@ -587,19 +656,31 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
+      <c r="M5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N5">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O5">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="P5">
+        <v>3.3E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -613,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>0.23599999999999999</v>
@@ -625,19 +706,31 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
+      <c r="M6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N6">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -651,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>0.27100000000000002</v>
@@ -663,16 +756,28 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
+      <c r="M7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O7">
+        <v>4.5000000000000014E-3</v>
+      </c>
+      <c r="P7">
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397B7FB-2E2E-794E-A593-AF47C6513601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB99AE-D018-E049-A9F1-E00E5B846EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>CMS(e)(2010)</t>
   </si>
   <si>
-    <t>syst0_c</t>
-  </si>
-  <si>
-    <t>syst1_c</t>
-  </si>
-  <si>
     <t>syst2_c</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst0_u</t>
+  </si>
+  <si>
+    <t>syst1_u</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -468,16 +468,16 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB99AE-D018-E049-A9F1-E00E5B846EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B1413-82D9-6140-AFC4-7F0D5A1DCD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>syst1_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -416,21 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1013" max="1024" width="10.5" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,43 +447,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -493,44 +499,47 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.155</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -543,44 +552,47 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -593,44 +605,47 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.9E-3</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -643,44 +658,47 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.01</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -693,44 +711,47 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -743,40 +764,43 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1E-3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4.5000000000000014E-3</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>

--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B1413-82D9-6140-AFC4-7F0D5A1DCD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6BEB84-8B58-7540-95CB-B15CD8B18784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>

--- a/wzrv/expdata/2013.xlsx
+++ b/wzrv/expdata/2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6BEB84-8B58-7540-95CB-B15CD8B18784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82330C9-9AF2-AA4C-BA53-47027F4BFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -88,16 +88,13 @@
   </si>
   <si>
     <t>syst1_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -106,6 +103,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,12 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -419,388 +427,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1013" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
         <v>7000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>0.4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.155</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N2">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N3">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P3">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O2">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N4">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="P2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="Q2">
-        <v>1.6000000000000001E-3</v>
+      <c r="O4">
+        <v>1.9E-3</v>
+      </c>
+      <c r="P4">
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
         <v>7000</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H5" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N5">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O5">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="P5">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="C6" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N6">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7">
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="P3">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="Q3">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O4">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P4">
-        <v>1.9E-3</v>
-      </c>
-      <c r="Q4">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="O5">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P5">
-        <v>4.6999999999999993E-3</v>
-      </c>
-      <c r="Q5">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="O6">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="P6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1E-3</v>
-      </c>
       <c r="O7">
-        <v>6.9999999999999993E-3</v>
+        <v>4.5000000000000014E-3</v>
       </c>
       <c r="P7">
-        <v>4.5000000000000014E-3</v>
-      </c>
-      <c r="Q7">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
